--- a/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Evaluations-LOC-Iteration2.xlsx
+++ b/Online shiping platform for FPTU_Team6_Document/SWP391-AppDevProject_Evaluations-LOC-Iteration2.xlsx
@@ -134,7 +134,7 @@
     <t>Đào Đức Thành</t>
   </si>
   <si>
-    <t>Select new reivew ticket + Approve function (data table + modal)</t>
+    <t>Select new review ticket + Approve function (data table + modal)</t>
   </si>
   <si>
     <t>review admin</t>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -472,6 +472,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="7" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -650,7 +653,7 @@
         <s v="Select product available on website (data table)"/>
         <s v="Delete product (sweet alert)"/>
         <s v="Dashboard"/>
-        <s v="Select new reivew ticket + Approve function (data table + modal)"/>
+        <s v="Select new review ticket + Approve function (data table + modal)"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Assignment Name" numFmtId="0">
@@ -1460,7 +1463,7 @@
       <c r="A14" s="9">
         <v>6.0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1525,7 +1528,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="13"/>
       <c r="N15" s="12"/>
-      <c r="O15" s="14"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="13"/>
     </row>
     <row r="16">
@@ -1561,7 +1564,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="13"/>
       <c r="N16" s="12"/>
-      <c r="O16" s="14"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="13"/>
     </row>
     <row r="17">
@@ -1597,7 +1600,7 @@
       <c r="L17" s="9"/>
       <c r="M17" s="13"/>
       <c r="N17" s="12"/>
-      <c r="O17" s="14"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="13"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
@@ -1633,7 +1636,7 @@
       <c r="L18" s="9"/>
       <c r="M18" s="13"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="14"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="13"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
@@ -1669,12 +1672,12 @@
       <c r="L19" s="9"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
-      <c r="O19" s="14"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="E20" s="16">
+      <c r="B20" s="16"/>
+      <c r="E20" s="17">
         <f>sum(E9:E19)</f>
         <v>1320</v>
       </c>
@@ -1685,67 +1688,67 @@
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="19">
         <f t="shared" ref="H26:H30" si="1">sumif($H$9:$H$19,G26,$E$9:$E$19)</f>
         <v>240</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="19">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="19">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="19">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="19">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="H31" s="18">
+      <c r="H31" s="19">
         <f>SUM(H6:H30)</f>
         <v>1320</v>
       </c>
@@ -3126,10 +3129,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3142,10 +3145,10 @@
       <c r="E15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H15" s="9"/>
@@ -3170,7 +3173,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="20"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -5226,76 +5229,76 @@
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="str">
+      <c r="A11" s="25" t="str">
         <f>VLOOKUP(B11,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>Đào Đức Thành</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="24" t="str">
+      <c r="A12" s="25" t="str">
         <f>VLOOKUP(B12,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="str">
+      <c r="A13" s="25" t="str">
         <f>VLOOKUP(B13,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="str">
+      <c r="A14" s="25" t="str">
         <f>VLOOKUP(B14,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>Đinh Văn Thành An</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="str">
+      <c r="A15" s="25" t="str">
         <f>VLOOKUP(B15,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16">
-      <c r="F16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17">
-      <c r="F17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18">
-      <c r="F18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19">
-      <c r="F19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20">
-      <c r="F20" s="26"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="F21" s="26"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
@@ -6333,42 +6336,42 @@
       <c r="G6" s="1"/>
     </row>
     <row r="10">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="25" t="str">
         <f>VLOOKUP(C11,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>Đào Đức Thành</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="25" t="str">
         <f>VLOOKUP(C12,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>Đinh Văn Thành An</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="25" t="str">
         <f>VLOOKUP(C13,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="25" t="str">
         <f>VLOOKUP(C14,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="25" t="str">
         <f>VLOOKUP(C15,'Assignemnts-original'!G:H,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="27"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
